--- a/Code/Results/Cases/Case_0_164/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_164/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.018304344779247</v>
+        <v>2.728779965065651</v>
       </c>
       <c r="D2">
-        <v>6.620229661256154</v>
+        <v>9.955051112981527</v>
       </c>
       <c r="E2">
-        <v>10.61239528769859</v>
+        <v>13.89494703328383</v>
       </c>
       <c r="F2">
-        <v>28.85219515414981</v>
+        <v>29.25823648110417</v>
       </c>
       <c r="G2">
-        <v>37.87341623851965</v>
+        <v>30.19113265778607</v>
       </c>
       <c r="H2">
-        <v>10.51728261889964</v>
+        <v>13.72557788070845</v>
       </c>
       <c r="I2">
-        <v>19.01896752500931</v>
+        <v>19.95349761985225</v>
       </c>
       <c r="J2">
-        <v>6.384824624882675</v>
+        <v>9.686377412883518</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>20.05235905720541</v>
+        <v>21.27759823122737</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,34 +456,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2.857039250758703</v>
+        <v>2.666799860447522</v>
       </c>
       <c r="D3">
-        <v>6.462129323807956</v>
+        <v>9.954949846502856</v>
       </c>
       <c r="E3">
-        <v>10.20636324410616</v>
+        <v>13.86112943064487</v>
       </c>
       <c r="F3">
-        <v>27.26030740263424</v>
+        <v>28.95767149847613</v>
       </c>
       <c r="G3">
-        <v>35.4299044859281</v>
+        <v>29.49286781126834</v>
       </c>
       <c r="H3">
-        <v>10.11321037569589</v>
+        <v>13.68904849605225</v>
       </c>
       <c r="I3">
-        <v>18.00358273448995</v>
+        <v>19.77431705042603</v>
       </c>
       <c r="J3">
-        <v>6.235949303479229</v>
+        <v>9.688278086992336</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>18.99382329058986</v>
+        <v>21.09485627290017</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,34 +491,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2.753346876056064</v>
+        <v>2.627431768047288</v>
       </c>
       <c r="D4">
-        <v>6.3670765520533</v>
+        <v>9.95657915190383</v>
       </c>
       <c r="E4">
-        <v>9.956490643515993</v>
+        <v>13.84336193971562</v>
       </c>
       <c r="F4">
-        <v>26.25594742751549</v>
+        <v>28.77966669272909</v>
       </c>
       <c r="G4">
-        <v>33.8683522827028</v>
+        <v>29.06527682824502</v>
       </c>
       <c r="H4">
-        <v>9.864287591452143</v>
+        <v>13.66951148769115</v>
       </c>
       <c r="I4">
-        <v>17.36442663110328</v>
+        <v>19.66886519832052</v>
       </c>
       <c r="J4">
-        <v>6.146908840304358</v>
+        <v>9.691131607468554</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>18.32816807732669</v>
+        <v>20.98749649895066</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2.709930193269794</v>
+        <v>2.611069552182918</v>
       </c>
       <c r="D5">
-        <v>6.328886422871325</v>
+        <v>9.95766906031502</v>
       </c>
       <c r="E5">
-        <v>9.854659493346499</v>
+        <v>13.83687981959222</v>
       </c>
       <c r="F5">
-        <v>25.8403364379206</v>
+        <v>28.7088533455806</v>
       </c>
       <c r="G5">
-        <v>33.21693920657466</v>
+        <v>28.89160399499858</v>
       </c>
       <c r="H5">
-        <v>9.762778365619349</v>
+        <v>13.66228266299892</v>
       </c>
       <c r="I5">
-        <v>17.10031926337349</v>
+        <v>19.62708502643773</v>
       </c>
       <c r="J5">
-        <v>6.111247485312933</v>
+        <v>9.692718850239771</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>18.05327615779914</v>
+        <v>20.94500837609286</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,34 +561,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>2.702651258575621</v>
+        <v>2.608333649158142</v>
       </c>
       <c r="D6">
-        <v>6.322578938776023</v>
+        <v>9.957875779935495</v>
       </c>
       <c r="E6">
-        <v>9.837754390663447</v>
+        <v>13.83584939071635</v>
       </c>
       <c r="F6">
-        <v>25.77095740532555</v>
+        <v>28.69720128737314</v>
       </c>
       <c r="G6">
-        <v>33.10787442546764</v>
+        <v>28.86280889360328</v>
       </c>
       <c r="H6">
-        <v>9.745922751498211</v>
+        <v>13.66112671683081</v>
       </c>
       <c r="I6">
-        <v>17.05625427117025</v>
+        <v>19.62022071728644</v>
       </c>
       <c r="J6">
-        <v>6.105364391627637</v>
+        <v>9.693008050396164</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>18.0074217265355</v>
+        <v>20.9380306942336</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,34 +596,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>2.752766022986775</v>
+        <v>2.627212380296753</v>
       </c>
       <c r="D7">
-        <v>6.366559253275724</v>
+        <v>9.956592125435547</v>
       </c>
       <c r="E7">
-        <v>9.955117147258406</v>
+        <v>13.84327144362154</v>
       </c>
       <c r="F7">
-        <v>26.25036730603514</v>
+        <v>28.7787045920416</v>
       </c>
       <c r="G7">
-        <v>33.85962758738858</v>
+        <v>29.06293190951477</v>
       </c>
       <c r="H7">
-        <v>9.862918702051306</v>
+        <v>13.66941102414877</v>
       </c>
       <c r="I7">
-        <v>17.36087910448864</v>
+        <v>19.66829685213424</v>
       </c>
       <c r="J7">
-        <v>6.146425338673993</v>
+        <v>9.691151294850178</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>18.32447502819155</v>
+        <v>20.98691832433327</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,34 +631,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>2.963677718189027</v>
+        <v>2.707687640182233</v>
       </c>
       <c r="D8">
-        <v>6.565318774935647</v>
+        <v>9.954665546593629</v>
       </c>
       <c r="E8">
-        <v>10.47259086615176</v>
+        <v>13.88266783122246</v>
       </c>
       <c r="F8">
-        <v>28.30914140556981</v>
+        <v>29.15329252787384</v>
       </c>
       <c r="G8">
-        <v>37.04376220425379</v>
+        <v>29.95030216823793</v>
       </c>
       <c r="H8">
-        <v>10.37820560952631</v>
+        <v>13.71238573299202</v>
       </c>
       <c r="I8">
-        <v>18.67228608560892</v>
+        <v>19.890795804572</v>
       </c>
       <c r="J8">
-        <v>6.333017074689851</v>
+        <v>9.686682972881327</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>19.69080847895363</v>
+        <v>21.21361027950487</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,34 +666,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>3.339762392014233</v>
+        <v>2.854662956744724</v>
       </c>
       <c r="D9">
-        <v>6.969579337927463</v>
+        <v>9.96427567094139</v>
       </c>
       <c r="E9">
-        <v>11.47761199451966</v>
+        <v>13.98346104558504</v>
       </c>
       <c r="F9">
-        <v>32.11775253144937</v>
+        <v>29.93610847079733</v>
       </c>
       <c r="G9">
-        <v>42.81747306852095</v>
+        <v>31.68738879936633</v>
       </c>
       <c r="H9">
-        <v>11.37700402919467</v>
+        <v>13.81933832538164</v>
       </c>
       <c r="I9">
-        <v>21.10900330445735</v>
+        <v>20.36128806603438</v>
       </c>
       <c r="J9">
-        <v>6.716553357526327</v>
+        <v>9.691282453223312</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>22.23465122632575</v>
+        <v>21.69455720922446</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,34 +701,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>3.592900570135118</v>
+        <v>2.955520451787618</v>
       </c>
       <c r="D10">
-        <v>7.273507493216131</v>
+        <v>9.979444865072413</v>
       </c>
       <c r="E10">
-        <v>12.204227377277</v>
+        <v>14.07149579450333</v>
       </c>
       <c r="F10">
-        <v>34.76252830440127</v>
+        <v>30.53555718835969</v>
       </c>
       <c r="G10">
-        <v>46.81852508120296</v>
+        <v>32.94627397956596</v>
       </c>
       <c r="H10">
-        <v>12.09798671128308</v>
+        <v>13.91133742855725</v>
       </c>
       <c r="I10">
-        <v>22.90207015745617</v>
+        <v>20.72490527758731</v>
       </c>
       <c r="J10">
-        <v>7.007655839283328</v>
+        <v>9.702772822597673</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>24.01044357112182</v>
+        <v>22.06723566228228</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,34 +736,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>3.703025682569815</v>
+        <v>2.999759994391921</v>
       </c>
       <c r="D11">
-        <v>7.412928717274253</v>
+        <v>9.988091451713009</v>
       </c>
       <c r="E11">
-        <v>12.53134290468664</v>
+        <v>14.11448837401452</v>
       </c>
       <c r="F11">
-        <v>35.93092614583598</v>
+        <v>30.8124209800499</v>
       </c>
       <c r="G11">
-        <v>48.56781543318608</v>
+        <v>33.5121897987804</v>
       </c>
       <c r="H11">
-        <v>12.42233708356173</v>
+        <v>13.95600390532065</v>
       </c>
       <c r="I11">
-        <v>23.77168449878259</v>
+        <v>20.89357776281338</v>
       </c>
       <c r="J11">
-        <v>7.141863981665246</v>
+        <v>9.709750526752767</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>24.91099990436168</v>
+        <v>22.24033131613716</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,34 +771,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>3.744006840130616</v>
+        <v>3.016269201105552</v>
       </c>
       <c r="D12">
-        <v>7.465867320854414</v>
+        <v>9.991615157128905</v>
       </c>
       <c r="E12">
-        <v>12.65466980240419</v>
+        <v>14.1311831220988</v>
       </c>
       <c r="F12">
-        <v>36.36833471619278</v>
+        <v>30.91776706014752</v>
       </c>
       <c r="G12">
-        <v>49.2202195789988</v>
+        <v>33.72528506671544</v>
       </c>
       <c r="H12">
-        <v>12.54459009523792</v>
+        <v>13.97331327431777</v>
       </c>
       <c r="I12">
-        <v>24.09567632065684</v>
+        <v>20.95786339543751</v>
       </c>
       <c r="J12">
-        <v>7.192926126009806</v>
+        <v>9.712643302057845</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>25.24977125361462</v>
+        <v>22.30633505977239</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,34 +806,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>3.735212813971886</v>
+        <v>3.012724581529501</v>
       </c>
       <c r="D13">
-        <v>7.45446003097522</v>
+        <v>9.990845198871439</v>
       </c>
       <c r="E13">
-        <v>12.62813401308822</v>
+        <v>14.12756933111613</v>
       </c>
       <c r="F13">
-        <v>36.2743551418123</v>
+        <v>30.89505801903287</v>
       </c>
       <c r="G13">
-        <v>49.08015483548108</v>
+        <v>33.67944830912072</v>
       </c>
       <c r="H13">
-        <v>12.5182867394885</v>
+        <v>13.9695679794355</v>
       </c>
       <c r="I13">
-        <v>24.0261331454988</v>
+        <v>20.94400085894352</v>
       </c>
       <c r="J13">
-        <v>7.181918490618128</v>
+        <v>9.712009173623047</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>25.17704951483898</v>
+        <v>22.29210058217862</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,34 +841,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>3.706411652678317</v>
+        <v>3.001123133745226</v>
       </c>
       <c r="D14">
-        <v>7.41728126859109</v>
+        <v>9.988376360225647</v>
       </c>
       <c r="E14">
-        <v>12.54150023392131</v>
+        <v>14.11585361043715</v>
       </c>
       <c r="F14">
-        <v>35.9670130413538</v>
+        <v>30.82107831877408</v>
       </c>
       <c r="G14">
-        <v>48.62168866903917</v>
+        <v>33.52974669752562</v>
       </c>
       <c r="H14">
-        <v>12.43240658657629</v>
+        <v>13.95742009621922</v>
       </c>
       <c r="I14">
-        <v>23.79844525107929</v>
+        <v>20.89885862447361</v>
       </c>
       <c r="J14">
-        <v>7.14606015133747</v>
+        <v>9.709983505264406</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>24.93897859258981</v>
+        <v>22.24575266440347</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,34 +876,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>3.688676341745738</v>
+        <v>2.99398501318501</v>
       </c>
       <c r="D15">
-        <v>7.394526158688191</v>
+        <v>9.98689655637704</v>
       </c>
       <c r="E15">
-        <v>12.48836236854872</v>
+        <v>14.10873107781515</v>
       </c>
       <c r="F15">
-        <v>35.77810063811484</v>
+        <v>30.77582637344957</v>
       </c>
       <c r="G15">
-        <v>48.33956662729525</v>
+        <v>33.43788660025978</v>
       </c>
       <c r="H15">
-        <v>12.37972692247995</v>
+        <v>13.9500303268308</v>
       </c>
       <c r="I15">
-        <v>23.65829170988339</v>
+        <v>20.87125982419021</v>
       </c>
       <c r="J15">
-        <v>7.124126798992064</v>
+        <v>9.708775302607123</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>24.79245205224957</v>
+        <v>22.21742096088007</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,34 +911,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>3.58560258931629</v>
+        <v>2.952595627115497</v>
       </c>
       <c r="D16">
-        <v>7.264417194384295</v>
+        <v>9.978914788576947</v>
       </c>
       <c r="E16">
-        <v>12.18277582493673</v>
+        <v>14.0687446273984</v>
       </c>
       <c r="F16">
-        <v>34.68546684134784</v>
+        <v>30.51753921407939</v>
       </c>
       <c r="G16">
-        <v>46.70279318402725</v>
+        <v>32.90913378270869</v>
       </c>
       <c r="H16">
-        <v>12.07671199039505</v>
+        <v>13.90847420835361</v>
       </c>
       <c r="I16">
-        <v>22.84448884775809</v>
+        <v>20.71394298549209</v>
       </c>
       <c r="J16">
-        <v>6.998919436322391</v>
+        <v>9.702351936432365</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>23.95861358525181</v>
+        <v>22.0559903562594</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,34 +946,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>3.521083121593914</v>
+        <v>2.926778821510534</v>
       </c>
       <c r="D17">
-        <v>7.184878557800871</v>
+        <v>9.974464323503957</v>
       </c>
       <c r="E17">
-        <v>11.99438839207367</v>
+        <v>14.04496227410565</v>
       </c>
       <c r="F17">
-        <v>34.00622708797608</v>
+        <v>30.3600884634232</v>
       </c>
       <c r="G17">
-        <v>45.68065310065515</v>
+        <v>32.58285940051093</v>
       </c>
       <c r="H17">
-        <v>11.88985190082851</v>
+        <v>13.8836952925915</v>
       </c>
       <c r="I17">
-        <v>22.33565828674346</v>
+        <v>20.61822981597839</v>
       </c>
       <c r="J17">
-        <v>6.922552786803142</v>
+        <v>9.698858949691044</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>23.5019876947411</v>
+        <v>21.95783059923031</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,34 +981,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>3.483499617647297</v>
+        <v>2.911775614143854</v>
       </c>
       <c r="D18">
-        <v>7.139240671749961</v>
+        <v>9.972068990275975</v>
       </c>
       <c r="E18">
-        <v>11.88571250309469</v>
+        <v>14.03156109064438</v>
       </c>
       <c r="F18">
-        <v>33.61227680968374</v>
+        <v>30.26992536866278</v>
       </c>
       <c r="G18">
-        <v>45.08606693626022</v>
+        <v>32.39457190214151</v>
       </c>
       <c r="H18">
-        <v>11.78203526536409</v>
+        <v>13.86970875867027</v>
       </c>
       <c r="I18">
-        <v>22.06803574640593</v>
+        <v>20.56348847637523</v>
       </c>
       <c r="J18">
-        <v>6.878797337286841</v>
+        <v>9.697014745871311</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>23.23733502573336</v>
+        <v>21.90171041309423</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,34 +1016,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>3.470693112458598</v>
+        <v>2.906669560474804</v>
       </c>
       <c r="D19">
-        <v>7.123808288403763</v>
+        <v>9.971286264311502</v>
       </c>
       <c r="E19">
-        <v>11.84886355731058</v>
+        <v>14.02707165926478</v>
       </c>
       <c r="F19">
-        <v>33.47833279761067</v>
+        <v>30.23946905090553</v>
       </c>
       <c r="G19">
-        <v>44.88359901160397</v>
+        <v>32.33072133737632</v>
       </c>
       <c r="H19">
-        <v>11.74547387241235</v>
+        <v>13.86501906968423</v>
       </c>
       <c r="I19">
-        <v>21.98203029518855</v>
+        <v>20.54500899855126</v>
       </c>
       <c r="J19">
-        <v>6.864012024254642</v>
+        <v>9.696418682596818</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>23.14738441112934</v>
+        <v>21.88276895557813</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,34 +1051,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>3.528000336623312</v>
+        <v>2.929543064964538</v>
       </c>
       <c r="D20">
-        <v>7.193334322913433</v>
+        <v>9.974921073813178</v>
       </c>
       <c r="E20">
-        <v>12.01447615145661</v>
+        <v>14.04746525924699</v>
       </c>
       <c r="F20">
-        <v>34.07887221445839</v>
+        <v>30.37680882686303</v>
       </c>
       <c r="G20">
-        <v>45.790151773968</v>
+        <v>32.61765809388438</v>
       </c>
       <c r="H20">
-        <v>11.90977904535752</v>
+        <v>13.88630562597058</v>
       </c>
       <c r="I20">
-        <v>22.39019177689181</v>
+        <v>20.62838693071233</v>
       </c>
       <c r="J20">
-        <v>6.930664826753505</v>
+        <v>9.69921372935608</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>23.55080515219725</v>
+        <v>21.96824522223619</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,34 +1086,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>3.714890785914129</v>
+        <v>3.004537420118909</v>
       </c>
       <c r="D21">
-        <v>7.428197867124696</v>
+        <v>9.989094762572616</v>
       </c>
       <c r="E21">
-        <v>12.56696178404834</v>
+        <v>14.11928363092765</v>
       </c>
       <c r="F21">
-        <v>36.05742367895795</v>
+        <v>30.84279504255866</v>
       </c>
       <c r="G21">
-        <v>48.7566214837894</v>
+        <v>33.57375216391741</v>
       </c>
       <c r="H21">
-        <v>12.45764748616697</v>
+        <v>13.96097758055037</v>
       </c>
       <c r="I21">
-        <v>23.86546588236267</v>
+        <v>20.91210723109233</v>
       </c>
       <c r="J21">
-        <v>7.156586193763608</v>
+        <v>9.710571706527887</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>25.00905170003669</v>
+        <v>22.25935424026518</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,34 +1121,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>3.832835519422251</v>
+        <v>3.052129177597081</v>
       </c>
       <c r="D22">
-        <v>7.582519391076338</v>
+        <v>9.999811063477841</v>
       </c>
       <c r="E22">
-        <v>12.92485678615649</v>
+        <v>14.16863180903648</v>
       </c>
       <c r="F22">
-        <v>37.34150256128794</v>
+        <v>31.15023604654399</v>
       </c>
       <c r="G22">
-        <v>50.63712463582456</v>
+        <v>34.19149596608563</v>
       </c>
       <c r="H22">
-        <v>12.81236990013814</v>
+        <v>14.01207827847209</v>
       </c>
       <c r="I22">
-        <v>24.79874479607458</v>
+        <v>21.09991615645757</v>
       </c>
       <c r="J22">
-        <v>7.305636445044662</v>
+        <v>9.719454015011983</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>25.98516069471099</v>
+        <v>22.45224346823443</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,34 +1156,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>3.770269083297943</v>
+        <v>3.026860887910352</v>
       </c>
       <c r="D23">
-        <v>7.500086427487772</v>
+        <v>9.993959217700572</v>
       </c>
       <c r="E23">
-        <v>12.7341456625704</v>
+        <v>14.14207635031708</v>
       </c>
       <c r="F23">
-        <v>36.64937182461417</v>
+        <v>30.98591603219004</v>
       </c>
       <c r="G23">
-        <v>49.63872647881487</v>
+        <v>33.86251865599009</v>
       </c>
       <c r="H23">
-        <v>12.62336543567104</v>
+        <v>13.98459795704715</v>
       </c>
       <c r="I23">
-        <v>24.3034211535999</v>
+        <v>20.99947965715831</v>
       </c>
       <c r="J23">
-        <v>7.225961667110583</v>
+        <v>9.714580309249527</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>25.4670313187836</v>
+        <v>22.34907260818603</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,34 +1191,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>3.524874591350877</v>
+        <v>2.928293850742838</v>
       </c>
       <c r="D24">
-        <v>7.189511189462801</v>
+        <v>9.974714068218672</v>
       </c>
       <c r="E24">
-        <v>12.00539562201052</v>
+        <v>14.04633281295985</v>
       </c>
       <c r="F24">
-        <v>34.04604008312821</v>
+        <v>30.36924842973588</v>
       </c>
       <c r="G24">
-        <v>45.74066906555349</v>
+        <v>32.60192779189889</v>
       </c>
       <c r="H24">
-        <v>11.90077118874005</v>
+        <v>13.8851246860798</v>
       </c>
       <c r="I24">
-        <v>22.36554869303661</v>
+        <v>20.62379400570167</v>
       </c>
       <c r="J24">
-        <v>6.926996908864711</v>
+        <v>9.699052822652378</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>23.52874141759721</v>
+        <v>21.96353579133698</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,34 +1226,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>3.242080730805544</v>
+        <v>2.816118648599054</v>
       </c>
       <c r="D25">
-        <v>6.858871763528021</v>
+        <v>9.960247339920496</v>
       </c>
       <c r="E25">
-        <v>11.20743622755185</v>
+        <v>13.9537090300142</v>
       </c>
       <c r="F25">
-        <v>31.11363975070791</v>
+        <v>29.71968912420404</v>
       </c>
       <c r="G25">
-        <v>41.29163668466555</v>
+        <v>31.21943570676752</v>
       </c>
       <c r="H25">
-        <v>11.10870712198574</v>
+        <v>13.78801584276745</v>
       </c>
       <c r="I25">
-        <v>20.46547460942268</v>
+        <v>20.23064075146674</v>
       </c>
       <c r="J25">
-        <v>6.611065087486052</v>
+        <v>9.688610579383473</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>21.56227230135708</v>
+        <v>21.56084013990481</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_164/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_164/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.728779965065651</v>
+        <v>3.018304344779156</v>
       </c>
       <c r="D2">
-        <v>9.955051112981527</v>
+        <v>6.620229661256208</v>
       </c>
       <c r="E2">
-        <v>13.89494703328383</v>
+        <v>10.61239528769859</v>
       </c>
       <c r="F2">
-        <v>29.25823648110417</v>
+        <v>28.85219515414979</v>
       </c>
       <c r="G2">
-        <v>30.19113265778607</v>
+        <v>37.87341623851961</v>
       </c>
       <c r="H2">
-        <v>13.72557788070845</v>
+        <v>10.5172826188996</v>
       </c>
       <c r="I2">
-        <v>19.95349761985225</v>
+        <v>19.0189675250093</v>
       </c>
       <c r="J2">
-        <v>9.686377412883518</v>
+        <v>6.384824624882668</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>21.27759823122737</v>
+        <v>20.0523590572054</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,34 +456,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2.666799860447522</v>
+        <v>2.85703925075863</v>
       </c>
       <c r="D3">
-        <v>9.954949846502856</v>
+        <v>6.462129323808033</v>
       </c>
       <c r="E3">
-        <v>13.86112943064487</v>
+        <v>10.20636324410622</v>
       </c>
       <c r="F3">
-        <v>28.95767149847613</v>
+        <v>27.26030740263422</v>
       </c>
       <c r="G3">
-        <v>29.49286781126834</v>
+        <v>35.42990448592811</v>
       </c>
       <c r="H3">
-        <v>13.68904849605225</v>
+        <v>10.11321037569586</v>
       </c>
       <c r="I3">
-        <v>19.77431705042603</v>
+        <v>18.00358273448993</v>
       </c>
       <c r="J3">
-        <v>9.688278086992336</v>
+        <v>6.235949303479275</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>21.09485627290017</v>
+        <v>18.99382329058983</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,34 +491,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2.627431768047288</v>
+        <v>2.753346876056156</v>
       </c>
       <c r="D4">
-        <v>9.95657915190383</v>
+        <v>6.367076552053306</v>
       </c>
       <c r="E4">
-        <v>13.84336193971562</v>
+        <v>9.956490643516041</v>
       </c>
       <c r="F4">
-        <v>28.77966669272909</v>
+        <v>26.25594742751553</v>
       </c>
       <c r="G4">
-        <v>29.06527682824502</v>
+        <v>33.86835228270282</v>
       </c>
       <c r="H4">
-        <v>13.66951148769115</v>
+        <v>9.86428759145215</v>
       </c>
       <c r="I4">
-        <v>19.66886519832052</v>
+        <v>17.36442663110328</v>
       </c>
       <c r="J4">
-        <v>9.691131607468554</v>
+        <v>6.146908840304362</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>20.98749649895066</v>
+        <v>18.32816807732672</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2.611069552182918</v>
+        <v>2.709930193269875</v>
       </c>
       <c r="D5">
-        <v>9.95766906031502</v>
+        <v>6.328886422871275</v>
       </c>
       <c r="E5">
-        <v>13.83687981959222</v>
+        <v>9.854659493346505</v>
       </c>
       <c r="F5">
-        <v>28.7088533455806</v>
+        <v>25.84033643792058</v>
       </c>
       <c r="G5">
-        <v>28.89160399499858</v>
+        <v>33.2169392065747</v>
       </c>
       <c r="H5">
-        <v>13.66228266299892</v>
+        <v>9.762778365619329</v>
       </c>
       <c r="I5">
-        <v>19.62708502643773</v>
+        <v>17.10031926337345</v>
       </c>
       <c r="J5">
-        <v>9.692718850239771</v>
+        <v>6.111247485312933</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>20.94500837609286</v>
+        <v>18.05327615779914</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,34 +561,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>2.608333649158142</v>
+        <v>2.702651258575621</v>
       </c>
       <c r="D6">
-        <v>9.957875779935495</v>
+        <v>6.322578938775923</v>
       </c>
       <c r="E6">
-        <v>13.83584939071635</v>
+        <v>9.837754390663399</v>
       </c>
       <c r="F6">
-        <v>28.69720128737314</v>
+        <v>25.77095740532553</v>
       </c>
       <c r="G6">
-        <v>28.86280889360328</v>
+        <v>33.10787442546768</v>
       </c>
       <c r="H6">
-        <v>13.66112671683081</v>
+        <v>9.745922751498206</v>
       </c>
       <c r="I6">
-        <v>19.62022071728644</v>
+        <v>17.05625427117026</v>
       </c>
       <c r="J6">
-        <v>9.693008050396164</v>
+        <v>6.105364391627631</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>20.9380306942336</v>
+        <v>18.00742172653551</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,34 +596,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>2.627212380296753</v>
+        <v>2.752766022986675</v>
       </c>
       <c r="D7">
-        <v>9.956592125435547</v>
+        <v>6.36655925327579</v>
       </c>
       <c r="E7">
-        <v>13.84327144362154</v>
+        <v>9.955117147258404</v>
       </c>
       <c r="F7">
-        <v>28.7787045920416</v>
+        <v>26.25036730603512</v>
       </c>
       <c r="G7">
-        <v>29.06293190951477</v>
+        <v>33.85962758738857</v>
       </c>
       <c r="H7">
-        <v>13.66941102414877</v>
+        <v>9.862918702051306</v>
       </c>
       <c r="I7">
-        <v>19.66829685213424</v>
+        <v>17.36087910448861</v>
       </c>
       <c r="J7">
-        <v>9.691151294850178</v>
+        <v>6.146425338674002</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>20.98691832433327</v>
+        <v>18.32447502819152</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,34 +631,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>2.707687640182233</v>
+        <v>2.963677718189034</v>
       </c>
       <c r="D8">
-        <v>9.954665546593629</v>
+        <v>6.565318774935593</v>
       </c>
       <c r="E8">
-        <v>13.88266783122246</v>
+        <v>10.47259086615176</v>
       </c>
       <c r="F8">
-        <v>29.15329252787384</v>
+        <v>28.30914140556979</v>
       </c>
       <c r="G8">
-        <v>29.95030216823793</v>
+        <v>37.0437622042538</v>
       </c>
       <c r="H8">
-        <v>13.71238573299202</v>
+        <v>10.37820560952629</v>
       </c>
       <c r="I8">
-        <v>19.890795804572</v>
+        <v>18.67228608560892</v>
       </c>
       <c r="J8">
-        <v>9.686682972881327</v>
+        <v>6.333017074689858</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>21.21361027950487</v>
+        <v>19.69080847895361</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,34 +666,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>2.854662956744724</v>
+        <v>3.339762392014247</v>
       </c>
       <c r="D9">
-        <v>9.96427567094139</v>
+        <v>6.969579337927385</v>
       </c>
       <c r="E9">
-        <v>13.98346104558504</v>
+        <v>11.47761199451968</v>
       </c>
       <c r="F9">
-        <v>29.93610847079733</v>
+        <v>32.11775253144936</v>
       </c>
       <c r="G9">
-        <v>31.68738879936633</v>
+        <v>42.81747306852095</v>
       </c>
       <c r="H9">
-        <v>13.81933832538164</v>
+        <v>11.37700402919464</v>
       </c>
       <c r="I9">
-        <v>20.36128806603438</v>
+        <v>21.10900330445735</v>
       </c>
       <c r="J9">
-        <v>9.691282453223312</v>
+        <v>6.716553357526374</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>21.69455720922446</v>
+        <v>22.23465122632575</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,34 +701,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>2.955520451787618</v>
+        <v>3.592900570135053</v>
       </c>
       <c r="D10">
-        <v>9.979444865072413</v>
+        <v>7.273507493216153</v>
       </c>
       <c r="E10">
-        <v>14.07149579450333</v>
+        <v>12.20422737727705</v>
       </c>
       <c r="F10">
-        <v>30.53555718835969</v>
+        <v>34.76252830440127</v>
       </c>
       <c r="G10">
-        <v>32.94627397956596</v>
+        <v>46.81852508120304</v>
       </c>
       <c r="H10">
-        <v>13.91133742855725</v>
+        <v>12.09798671128307</v>
       </c>
       <c r="I10">
-        <v>20.72490527758731</v>
+        <v>22.9020701574562</v>
       </c>
       <c r="J10">
-        <v>9.702772822597673</v>
+        <v>7.007655839283368</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>22.06723566228228</v>
+        <v>24.01044357112182</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,34 +736,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>2.999759994391921</v>
+        <v>3.703025682569632</v>
       </c>
       <c r="D11">
-        <v>9.988091451713009</v>
+        <v>7.412928717274224</v>
       </c>
       <c r="E11">
-        <v>14.11448837401452</v>
+        <v>12.53134290468663</v>
       </c>
       <c r="F11">
-        <v>30.8124209800499</v>
+        <v>35.93092614583598</v>
       </c>
       <c r="G11">
-        <v>33.5121897987804</v>
+        <v>48.56781543318615</v>
       </c>
       <c r="H11">
-        <v>13.95600390532065</v>
+        <v>12.42233708356172</v>
       </c>
       <c r="I11">
-        <v>20.89357776281338</v>
+        <v>23.7716844987826</v>
       </c>
       <c r="J11">
-        <v>9.709750526752767</v>
+        <v>7.141863981665253</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>22.24033131613716</v>
+        <v>24.91099990436171</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,34 +771,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>3.016269201105552</v>
+        <v>3.744006840130701</v>
       </c>
       <c r="D12">
-        <v>9.991615157128905</v>
+        <v>7.465867320854412</v>
       </c>
       <c r="E12">
-        <v>14.1311831220988</v>
+        <v>12.65466980240419</v>
       </c>
       <c r="F12">
-        <v>30.91776706014752</v>
+        <v>36.3683347161928</v>
       </c>
       <c r="G12">
-        <v>33.72528506671544</v>
+        <v>49.22021957899887</v>
       </c>
       <c r="H12">
-        <v>13.97331327431777</v>
+        <v>12.54459009523791</v>
       </c>
       <c r="I12">
-        <v>20.95786339543751</v>
+        <v>24.0956763206569</v>
       </c>
       <c r="J12">
-        <v>9.712643302057845</v>
+        <v>7.192926126009809</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>22.30633505977239</v>
+        <v>25.24977125361466</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,34 +806,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>3.012724581529501</v>
+        <v>3.735212813971865</v>
       </c>
       <c r="D13">
-        <v>9.990845198871439</v>
+        <v>7.454460030975165</v>
       </c>
       <c r="E13">
-        <v>14.12756933111613</v>
+        <v>12.62813401308822</v>
       </c>
       <c r="F13">
-        <v>30.89505801903287</v>
+        <v>36.27435514181228</v>
       </c>
       <c r="G13">
-        <v>33.67944830912072</v>
+        <v>49.08015483548108</v>
       </c>
       <c r="H13">
-        <v>13.9695679794355</v>
+        <v>12.51828673948847</v>
       </c>
       <c r="I13">
-        <v>20.94400085894352</v>
+        <v>24.0261331454988</v>
       </c>
       <c r="J13">
-        <v>9.712009173623047</v>
+        <v>7.181918490618129</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>22.29210058217862</v>
+        <v>25.17704951483899</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,34 +841,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>3.001123133745226</v>
+        <v>3.706411652678289</v>
       </c>
       <c r="D14">
-        <v>9.988376360225647</v>
+        <v>7.417281268591163</v>
       </c>
       <c r="E14">
-        <v>14.11585361043715</v>
+        <v>12.54150023392133</v>
       </c>
       <c r="F14">
-        <v>30.82107831877408</v>
+        <v>35.96701304135384</v>
       </c>
       <c r="G14">
-        <v>33.52974669752562</v>
+        <v>48.62168866903932</v>
       </c>
       <c r="H14">
-        <v>13.95742009621922</v>
+        <v>12.4324065865763</v>
       </c>
       <c r="I14">
-        <v>20.89885862447361</v>
+        <v>23.79844525107936</v>
       </c>
       <c r="J14">
-        <v>9.709983505264406</v>
+        <v>7.146060151337477</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>22.24575266440347</v>
+        <v>24.93897859258987</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,34 +876,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>2.99398501318501</v>
+        <v>3.688676341745822</v>
       </c>
       <c r="D15">
-        <v>9.98689655637704</v>
+        <v>7.394526158688122</v>
       </c>
       <c r="E15">
-        <v>14.10873107781515</v>
+        <v>12.48836236854869</v>
       </c>
       <c r="F15">
-        <v>30.77582637344957</v>
+        <v>35.77810063811482</v>
       </c>
       <c r="G15">
-        <v>33.43788660025978</v>
+        <v>48.33956662729524</v>
       </c>
       <c r="H15">
-        <v>13.9500303268308</v>
+        <v>12.37972692247995</v>
       </c>
       <c r="I15">
-        <v>20.87125982419021</v>
+        <v>23.65829170988339</v>
       </c>
       <c r="J15">
-        <v>9.708775302607123</v>
+        <v>7.124126798992067</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>22.21742096088007</v>
+        <v>24.79245205224957</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,34 +911,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>2.952595627115497</v>
+        <v>3.585602589316256</v>
       </c>
       <c r="D16">
-        <v>9.978914788576947</v>
+        <v>7.264417194384267</v>
       </c>
       <c r="E16">
-        <v>14.0687446273984</v>
+        <v>12.1827758249367</v>
       </c>
       <c r="F16">
-        <v>30.51753921407939</v>
+        <v>34.68546684134782</v>
       </c>
       <c r="G16">
-        <v>32.90913378270869</v>
+        <v>46.70279318402714</v>
       </c>
       <c r="H16">
-        <v>13.90847420835361</v>
+        <v>12.07671199039506</v>
       </c>
       <c r="I16">
-        <v>20.71394298549209</v>
+        <v>22.84448884775802</v>
       </c>
       <c r="J16">
-        <v>9.702351936432365</v>
+        <v>6.998919436322399</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>22.0559903562594</v>
+        <v>23.9586135852518</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,34 +946,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>2.926778821510534</v>
+        <v>3.521083121594085</v>
       </c>
       <c r="D17">
-        <v>9.974464323503957</v>
+        <v>7.184878557800873</v>
       </c>
       <c r="E17">
-        <v>14.04496227410565</v>
+        <v>11.99438839207366</v>
       </c>
       <c r="F17">
-        <v>30.3600884634232</v>
+        <v>34.00622708797605</v>
       </c>
       <c r="G17">
-        <v>32.58285940051093</v>
+        <v>45.68065310065514</v>
       </c>
       <c r="H17">
-        <v>13.8836952925915</v>
+        <v>11.88985190082849</v>
       </c>
       <c r="I17">
-        <v>20.61822981597839</v>
+        <v>22.33565828674348</v>
       </c>
       <c r="J17">
-        <v>9.698858949691044</v>
+        <v>6.922552786803132</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>21.95783059923031</v>
+        <v>23.50198769474108</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,34 +981,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>2.911775614143854</v>
+        <v>3.483499617647218</v>
       </c>
       <c r="D18">
-        <v>9.972068990275975</v>
+        <v>7.13924067174995</v>
       </c>
       <c r="E18">
-        <v>14.03156109064438</v>
+        <v>11.88571250309469</v>
       </c>
       <c r="F18">
-        <v>30.26992536866278</v>
+        <v>33.61227680968376</v>
       </c>
       <c r="G18">
-        <v>32.39457190214151</v>
+        <v>45.08606693626017</v>
       </c>
       <c r="H18">
-        <v>13.86970875867027</v>
+        <v>11.78203526536406</v>
       </c>
       <c r="I18">
-        <v>20.56348847637523</v>
+        <v>22.06803574640593</v>
       </c>
       <c r="J18">
-        <v>9.697014745871311</v>
+        <v>6.87879733728681</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>21.90171041309423</v>
+        <v>23.23733502573336</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,34 +1016,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>2.906669560474804</v>
+        <v>3.470693112458512</v>
       </c>
       <c r="D19">
-        <v>9.971286264311502</v>
+        <v>7.123808288403807</v>
       </c>
       <c r="E19">
-        <v>14.02707165926478</v>
+        <v>11.8488635573106</v>
       </c>
       <c r="F19">
-        <v>30.23946905090553</v>
+        <v>33.47833279761068</v>
       </c>
       <c r="G19">
-        <v>32.33072133737632</v>
+        <v>44.88359901160408</v>
       </c>
       <c r="H19">
-        <v>13.86501906968423</v>
+        <v>11.74547387241234</v>
       </c>
       <c r="I19">
-        <v>20.54500899855126</v>
+        <v>21.98203029518856</v>
       </c>
       <c r="J19">
-        <v>9.696418682596818</v>
+        <v>6.864012024254638</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>21.88276895557813</v>
+        <v>23.14738441112934</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,34 +1051,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>2.929543064964538</v>
+        <v>3.528000336623206</v>
       </c>
       <c r="D20">
-        <v>9.974921073813178</v>
+        <v>7.193334322913401</v>
       </c>
       <c r="E20">
-        <v>14.04746525924699</v>
+        <v>12.01447615145655</v>
       </c>
       <c r="F20">
-        <v>30.37680882686303</v>
+        <v>34.07887221445838</v>
       </c>
       <c r="G20">
-        <v>32.61765809388438</v>
+        <v>45.79015177396798</v>
       </c>
       <c r="H20">
-        <v>13.88630562597058</v>
+        <v>11.90977904535752</v>
       </c>
       <c r="I20">
-        <v>20.62838693071233</v>
+        <v>22.3901917768918</v>
       </c>
       <c r="J20">
-        <v>9.69921372935608</v>
+        <v>6.930664826753481</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.96824522223619</v>
+        <v>23.55080515219723</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,34 +1086,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>3.004537420118909</v>
+        <v>3.714890785914037</v>
       </c>
       <c r="D21">
-        <v>9.989094762572616</v>
+        <v>7.42819786712469</v>
       </c>
       <c r="E21">
-        <v>14.11928363092765</v>
+        <v>12.56696178404831</v>
       </c>
       <c r="F21">
-        <v>30.84279504255866</v>
+        <v>36.05742367895793</v>
       </c>
       <c r="G21">
-        <v>33.57375216391741</v>
+        <v>48.75662148378937</v>
       </c>
       <c r="H21">
-        <v>13.96097758055037</v>
+        <v>12.45764748616696</v>
       </c>
       <c r="I21">
-        <v>20.91210723109233</v>
+        <v>23.86546588236265</v>
       </c>
       <c r="J21">
-        <v>9.710571706527887</v>
+        <v>7.156586193763595</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>22.25935424026518</v>
+        <v>25.00905170003668</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,34 +1121,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>3.052129177597081</v>
+        <v>3.832835519422181</v>
       </c>
       <c r="D22">
-        <v>9.999811063477841</v>
+        <v>7.582519391076321</v>
       </c>
       <c r="E22">
-        <v>14.16863180903648</v>
+        <v>12.92485678615651</v>
       </c>
       <c r="F22">
-        <v>31.15023604654399</v>
+        <v>37.34150256128796</v>
       </c>
       <c r="G22">
-        <v>34.19149596608563</v>
+        <v>50.63712463582457</v>
       </c>
       <c r="H22">
-        <v>14.01207827847209</v>
+        <v>12.81236990013814</v>
       </c>
       <c r="I22">
-        <v>21.09991615645757</v>
+        <v>24.79874479607459</v>
       </c>
       <c r="J22">
-        <v>9.719454015011983</v>
+        <v>7.305636445044675</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>22.45224346823443</v>
+        <v>25.98516069471102</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,34 +1156,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>3.026860887910352</v>
+        <v>3.770269083297851</v>
       </c>
       <c r="D23">
-        <v>9.993959217700572</v>
+        <v>7.500086427487772</v>
       </c>
       <c r="E23">
-        <v>14.14207635031708</v>
+        <v>12.73414566257041</v>
       </c>
       <c r="F23">
-        <v>30.98591603219004</v>
+        <v>36.64937182461421</v>
       </c>
       <c r="G23">
-        <v>33.86251865599009</v>
+        <v>49.63872647881497</v>
       </c>
       <c r="H23">
-        <v>13.98459795704715</v>
+        <v>12.62336543567104</v>
       </c>
       <c r="I23">
-        <v>20.99947965715831</v>
+        <v>24.30342115359994</v>
       </c>
       <c r="J23">
-        <v>9.714580309249527</v>
+        <v>7.225961667110573</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>22.34907260818603</v>
+        <v>25.46703131878365</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,34 +1191,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>2.928293850742838</v>
+        <v>3.524874591350809</v>
       </c>
       <c r="D24">
-        <v>9.974714068218672</v>
+        <v>7.189511189462777</v>
       </c>
       <c r="E24">
-        <v>14.04633281295985</v>
+        <v>12.00539562201051</v>
       </c>
       <c r="F24">
-        <v>30.36924842973588</v>
+        <v>34.04604008312824</v>
       </c>
       <c r="G24">
-        <v>32.60192779189889</v>
+        <v>45.74066906555367</v>
       </c>
       <c r="H24">
-        <v>13.8851246860798</v>
+        <v>11.90077118874002</v>
       </c>
       <c r="I24">
-        <v>20.62379400570167</v>
+        <v>22.36554869303667</v>
       </c>
       <c r="J24">
-        <v>9.699052822652378</v>
+        <v>6.926996908864703</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.96353579133698</v>
+        <v>23.52874141759722</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,34 +1226,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>2.816118648599054</v>
+        <v>3.242080730805605</v>
       </c>
       <c r="D25">
-        <v>9.960247339920496</v>
+        <v>6.858871763528016</v>
       </c>
       <c r="E25">
-        <v>13.9537090300142</v>
+        <v>11.20743622755189</v>
       </c>
       <c r="F25">
-        <v>29.71968912420404</v>
+        <v>31.11363975070791</v>
       </c>
       <c r="G25">
-        <v>31.21943570676752</v>
+        <v>41.29163668466555</v>
       </c>
       <c r="H25">
-        <v>13.78801584276745</v>
+        <v>11.10870712198574</v>
       </c>
       <c r="I25">
-        <v>20.23064075146674</v>
+        <v>20.46547460942267</v>
       </c>
       <c r="J25">
-        <v>9.688610579383473</v>
+        <v>6.611065087486044</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>21.56084013990481</v>
+        <v>21.56227230135707</v>
       </c>
     </row>
   </sheetData>
